--- a/src/test/resources/excelData/LoginDsAlgo.xlsx
+++ b/src/test/resources/excelData/LoginDsAlgo.xlsx
@@ -3,30 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{25C8B657-79C9-417A-B0A4-E7BC0B32A33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A89FFD47-3905-4E1E-8426-8498219705AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{E23C2CDC-087D-441A-8A7C-BF1735931C80}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{E23C2CDC-087D-441A-8A7C-BF1735931C80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="pythonCode" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:A25"/>
+  <oleSize ref="A1:S22"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -560,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2E9D05-32E4-448D-BA13-C8F41D4CAE19}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -641,7 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E850FF-EB3D-42F0-9B18-B90E552B59D2}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
